--- a/medicine/Psychotrope/Mushakōjisenke/Mushakōjisenke.xlsx
+++ b/medicine/Psychotrope/Mushakōjisenke/Mushakōjisenke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mushak%C5%8Djisenke</t>
+          <t>Mushakōjisenke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mushakōjisenke (武者小路千家?), parfois appelée Mushanokōjisenke, est une des écoles de la cérémonie du thé japonaise. Avec l'Urasenke et l'Omotesenke, la Mushakōjisenke est une des trois lignées de la famille Sen descendante de Sen Rikyū, toutes trois collectivement appelées san-Senke ou « Trois maisons/familles Sen » (三千家). Le chef ou iemoto de cette lignée porte le nom héréditaire de Sōshu (宗守).
 La Mushakōjisenke est associée à l'arrière petit-fils de Sen Rikyū, Ichiō Sōshu (一翁宗守?), deuxième des quatre fils de Sen Sōtan. Comme son frère ainé, il est fils de Sōtan par la première épouse de celui-ci
-et durant une grande partie de sa vie, vit en dehors de la maison Sen et devient artisan vernisseur. À la demande de ses jeunes frères cependant, il crée sa propre maison de thé appelée Kankyū-an, sur la rue Mushakōji, et se consacre à la pratique et l'enseignement de la Voie du Thé[1]. 
+et durant une grande partie de sa vie, vit en dehors de la maison Sen et devient artisan vernisseur. À la demande de ses jeunes frères cependant, il crée sa propre maison de thé appelée Kankyū-an, sur la rue Mushakōji, et se consacre à la pratique et l'enseignement de la Voie du Thé. 
 Ichiō Sōshu est nommé maître de thé du clan Matsudaira à Takamatsu dans la province de Sanuki. Jusqu'à la restauration Meiji, l'héritier de la famille est au service des Matsudaira de Takamatsu de génération en génération.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mushak%C5%8Djisenke</t>
+          <t>Mushakōjisenke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
